--- a/Texas.xlsx
+++ b/Texas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,19 +360,19 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>gov_link</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>bio</t>
@@ -416,23 +416,33 @@
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>covid_link.5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>county_name</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://amarillo.gov</t>
+          <t>Abilene</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ginger Nelson</t>
+          <t>http://www.abilenetx.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Amarillo, TX</t>
+          <t>Anthony Williams</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.abilenetx.gov/538/Anthony-Williams</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -447,71 +457,56 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amarillo.gov/departments/community-services/public-health/covid-19-novel-coronavirus</t>
+          <t>https://www.abilenetx.gov/covid19</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Taylor</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://beaumonttexas.gov</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Becky Ames</t>
+          <t>http://www.cityofallen.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Beaumont, TX</t>
+          <t>Debbie Stout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://beaumonttexas.gov/city-council/mayor-becky-ames/</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>cityofbmt</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>cityofbmt</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://beaumonttexas.gov/mayor-ames-daily-covid-19-update-for-friday-october-30/</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://beaumonttexas.gov/covid19/mayor-ames-daily-covid-19-update/</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://beaumonttexas.gov/covid19/</t>
+          <t>https://www.cityofallen.org/1299/Debbie-Stout</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Collin</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://cityofkeller.com</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pat McGrail</t>
+          <t>http://amarillo.gov</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Keller, TX</t>
+          <t>Ginger Nelson</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -526,260 +521,345 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.cityofkeller.com/services/fire-rescue/emergency-management/coronavirus-covid-19-information</t>
+          <t>https://www.amarillo.gov/departments/community-services/public-health/covid-19-novel-coronavirus</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Potter</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://cityofpflugerville.com/</t>
+          <t>Arlington</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Victor Gonzales</t>
+          <t>http://www.arlingtontx.gov</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pflugerville, TX</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>Jeff Williams</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.arlingtontx.gov/city_hall/government/city_council/members/mayor_jeff_williams</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Tarrant</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://rockwall.com</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jim Pruitt</t>
+          <t>http://www.austintexas.gov</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rockwall, TX</t>
+          <t>Steve Adler</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.rockwall.com/documents/MayorCouncil/JimPruitt.pdf</t>
+          <t>http://www.mayoradler.com/about-us-2/about-mayor-adler/</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MayorAdler</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://covid19.austintexas.gov</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Travis</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://schertz.com</t>
+          <t>Baytown</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ralph Gutierrez</t>
+          <t>http://www.baytown.org</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Schertz, TX</t>
+          <t>Brandon Capetillo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://schertz.com/236/Mayor</t>
+          <t>https://www.baytown.org/city-hall/city-council/meet-the-mayor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>cityofschertz</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Harris</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://www.abilenetx.com</t>
+          <t>Beaumont</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anthony Williams</t>
+          <t>http://beaumonttexas.gov</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Abilene, TX</t>
+          <t>Becky Ames</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.abilenetx.gov/538/Anthony-Williams</t>
+          <t>https://beaumonttexas.gov/city-council/mayor-becky-ames/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>cityofbmt</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>cityofbmt</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.abilenetx.gov/covid19</t>
+          <t>https://beaumonttexas.gov/mayor-ames-daily-covid-19-update-for-friday-october-30/</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://beaumonttexas.gov/covid19/mayor-ames-daily-covid-19-update/</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://beaumonttexas.gov/covid19/</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Jefferson</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://www.arlingtontx.gov</t>
+          <t>Bedford</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jeff Williams</t>
+          <t>http://www.ci.bedford.tx.us</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Arlington, TX</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://www.arlingtontx.gov/city_hall/government/city_council/members/mayor_jeff_williams</t>
+          <t>Jim Griffin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Tarrant</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://www.austintexas.gov</t>
+          <t>Brownsville</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Steve Adler</t>
+          <t>http://www.cob.us</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Austin, TX</t>
+          <t>Trey Mendez</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.mayoradler.com/about-us-2/about-mayor-adler/</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>MayorAdler</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://covid19.austintexas.gov</t>
+          <t>https://votetrey.com/</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Cameron</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://www.baytown.org</t>
+          <t>Bryan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brandon Capetillo</t>
+          <t>http://www.bryantx.gov/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Baytown, TX</t>
+          <t>Andrew Nelson</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.baytown.org/city-hall/city-council/meet-the-mayor</t>
+          <t>http://www.bryantx.gov/mayor-and-city-council/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>cityofbryan</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>CityofBryan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Brazos</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://www.bryantx.gov/</t>
+          <t>Burleson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Andrew Nelson</t>
+          <t>http://www.burlesontx.com</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bryan, TX</t>
+          <t>Ken Shetter</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.bryantx.gov/mayor-and-city-council/</t>
+          <t>http://www.burlesontx.com/index.aspx?nid=129</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cityofbryan</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CityofBryan</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Johnson</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://www.burlesontx.com</t>
+          <t>Carrollton</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ken Shetter</t>
+          <t>http://www.cityofcarrollton.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Burleson, TX</t>
+          <t>Kevin Falconer</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.burlesontx.com/index.aspx?nid=129</t>
+          <t>http://www.cityofcarrollton.com/government/city-manager-s-office/city-secretary/city-council/council-bios/mayor-kevin-falconer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -790,85 +870,70 @@
       <c r="F13" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://www.cctexas.com</t>
+          <t>Cedar Hill</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Joe McComb</t>
+          <t>http://www.cedarhilltx.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Corpus Christi, TX</t>
+          <t>Stephen Mason</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://ballotpedia.org/Joe_McComb</t>
+          <t>http://cedarhilltx.com/2518/Mayor-Stephen-Mason</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>home?status=https%3A%2F%2Fballotpedia.org%2FJoe_McComb</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://news.cctexas.com/news/daily-update-on-covid-19-activity-6819507</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://news.cctexas.com/news/nueces-county-reports-one-covid-19-related-death-6819487</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://news.cctexas.com/news/daily-update-on-covid-19-activity-6819288</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>/detail/covid-19-public-comment-input-procedures</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>https://news.cctexas.com/news/daily-update-on-covid-19-activity-6819423</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>/detail/ccncphd-covid-19-testing-process</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://www.cedarhilltx.com</t>
+          <t>Cedar Park</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Stephen Mason</t>
+          <t>http://www.cedarparktexas.gov</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cedar Hill, TX</t>
+          <t>Corbin Van Arsdale</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://cedarhilltx.com/2518/Mayor-Stephen-Mason</t>
+          <t>http://www.cedarparktexas.gov/government/mayor-and-city-council/mayor-and-city-council-members/mayor-matt-powell</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -879,28 +944,33 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>/departments/homeland-security-emergency-management/covid-19-coronavirus-information</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Williamson</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://www.cedarparktexas.gov</t>
+          <t>Cibolo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Corbin Van Arsdale</t>
+          <t>https://www.cibolotx.gov/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cedar Park, TX</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>http://www.cedarparktexas.gov/government/mayor-and-city-council/mayor-and-city-council-members/mayor-matt-powell</t>
+          <t>Stan "Stosh" Boyle</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -913,140 +983,95 @@
           <t>error</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>/departments/homeland-security-emergency-management/covid-19-coronavirus-information</t>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Guadalupe</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://www.ci.bedford.tx.us</t>
+          <t>Cleburne</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jim Griffin</t>
+          <t>https://www.cleburne.net</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bedford, TX</t>
+          <t>Scott Cain</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.cleburne.net/239/Scott-Cain</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>cityofcleburne</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>r</t>
+          <t>CityofCleburne</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Johnson</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://www.ci.euless.tx.us</t>
+          <t>College Station</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Linda Lipp Martin</t>
+          <t>http://www.cstx.gov</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Euless, TX</t>
+          <t>Karl Mooney</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.euless.org/cityhall/mayor.htm</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>https://www.cstx.gov/departments___city_hall/council</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>r</t>
+          <t>cityofcs</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Brazos</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://www.ci.friendswood.tx.us</t>
+          <t>Conroe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mike Foreman</t>
+          <t>http://www.cityofconroe.org</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Friendswood, TX</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>http://www.ci.friendswood.tx.us/Biographies/</t>
+          <t>Toby Powell</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1057,215 +1082,285 @@
       <c r="F19" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>/transparency/covid-19-business-resources</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>/transparency/coronavirus-disease-2019-covid-19-updates</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Montgomery</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://www.ci.grapevine.tx.us</t>
+          <t>Coppell</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>William 'Bill' D. Tate</t>
+          <t>http://www.coppelltx.gov</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Grapevine, TX</t>
+          <t>Karen Hunt</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.ci.grapevine.tx.us/index.aspx?nid=93</t>
+          <t>http://www.coppelltx.gov/Pages/Council-Mayor.aspx</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>grapevinetx</t>
+          <t>cityofcoppelltx</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GrapevineTXCity</t>
+          <t>cityofcoppell</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://www.ci.killeen.tx.us</t>
+          <t>Copperas Cove</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jose L. Segarra</t>
+          <t>http://www.copperascovetx.gov</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Killeen, TX</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://killenmayor.business.site/</t>
+          <t>Bradi Diaz</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>/pio/covid-19/</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Coryell</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://www.ci.la-porte.tx.us</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Louis Rigby</t>
+          <t>http://www.cctexas.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>La Porte, TX</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>Joe McComb</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://ballotpedia.org/Joe_McComb</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>home?status=https%3A%2F%2Fballotpedia.org%2FJoe_McComb</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>http://www.laportetx.gov/covid19</t>
+          <t>https://news.cctexas.com/news/daily-update-on-covid-19-activity-6819507</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://news.cctexas.com/news/nueces-county-reports-one-covid-19-related-death-6819487</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://news.cctexas.com/news/daily-update-on-covid-19-activity-6819288</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>/detail/covid-19-public-comment-input-procedures</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://news.cctexas.com/news/daily-update-on-covid-19-activity-6819423</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>/detail/ccncphd-covid-19-testing-process</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Nueces</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://www.ci.longview.tx.us</t>
+          <t>Crystal City</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Andy Mack</t>
+          <t>http://www.cityofcc.org</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Longview, TX</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.longviewtexas.gov/2202/Mayor</t>
+          <t>Frank Moreno Junior</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cityoflongview</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>cityoflongview</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Zavala</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://www.ci.lubbock.tx.us</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dan Pope</t>
+          <t>http://www.dallascityhall.com</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lubbock, TX</t>
+          <t>Eric Johnson</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>http://dallascityhall.com/government/citymayor/Pages/Biography.aspx</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>mayorofdallas</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>dallasmayor</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://www.ci.lufkin.tx.us</t>
+          <t>Deer Park</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bob Brown</t>
+          <t>http://www.deerparktx.gov</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lufkin, TX</t>
+          <t>Jerry Mouton Jr.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://cityoflufkin.com/council/mayor.htm</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>r</t>
+          <t>http://www.deerparktx.gov/Index.aspx?NID=1023</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>deerparktxgov</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">deerparktxgov?lang=en </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Harris</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://www.ci.nacogdoches.tx.us</t>
+          <t>Del Rio</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Shelley Brophy</t>
+          <t>http://www.cityofdelrio.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nacogdoches, TX</t>
+          <t>Bruno 'Ralphy' Lozano</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>http://www.cityofdelrio.com/445/Mayor</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1280,113 +1375,133 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>/covid19</t>
+          <t>/government/covid-19</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>http://www.cityofdelrio.com/government/covid-19</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Val Verde</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://www.ci.pasadena.tx.us</t>
+          <t>Denton</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jeff A. Wagner</t>
+          <t>http://www.cityofdenton.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pasadena, TX</t>
+          <t>Chris Watts</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.pasadenatx.gov/578/Mayor-Jeff-Wagner</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>pasadenatxgov</t>
+          <t>http://www.cityofdenton.com/government/city-council/mayor-chris-watts</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>pasadenatxgov</t>
+          <t>cityofdentontx?lang=en</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>/en-us/government/health-safety/covid-19-information/city-facility-reopening-schedule</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>/en-us/residents/health-safety/covid-19-information</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>/en-us/government/health-safety/covid-19-information/covid-19-business-guidelines</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>/en-us/government/health-safety/covid-19-information</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>/en-us/government/health-safety/covid-19-information/home-covid-19-information</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>/en-us/government/health-safety/covid-19-information/business-resources</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Denton</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://www.ci.rosenberg.tx.us</t>
+          <t>DeSoto</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>William 'Bill' T. Benton</t>
+          <t>http://www.desototexas.gov</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rosenberg, TX</t>
+          <t>Curtistene Smith McCowan</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://rosenbergtx.gov/city-government/mayor-city-council/</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>http://www.ci.desoto.tx.us/61/Place-One</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>r</t>
+          <t>desototx</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://www.ci.socorro.tx.us</t>
+          <t>Duncanville</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Elia Garcia</t>
+          <t>http://www.duncanville.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Socorro, TX</t>
+          <t>Barry L. Gordon</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>http://www.duncanville.com/government/city-council/barry-gordon/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1397,80 +1512,85 @@
       <c r="F29" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://www.ci.temple.tx.us</t>
+          <t>Eagle Pass</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>William A. Jones III</t>
+          <t>http://www.eaglepasstx.us</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Temple, TX</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>r</t>
+          <t>Ramsey English Cantu</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.portstoplains.com/index.php/our-alliance/our-board/57-personnel/board-members/457-ramsey-english-cantu</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Maverick</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://www.ci.texarkana.tx.us</t>
+          <t>Edinburg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bob Bruggeman</t>
+          <t>http://www.cityofedinburg.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Texarkana, TX</t>
+          <t>Richard Molina</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.ci.texarkana.tx.us/302/Bob-Bruggeman-Mayor</t>
+          <t>http://www.cityofedinburg.com/meet.php</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1481,50 +1601,70 @@
       <c r="F31" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://www.ci.the-colony.tx.us</t>
+          <t>El Paso</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Joe McCourry</t>
+          <t>http://www.elpasotexas.gov</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The Colony, TX</t>
+          <t>Dee Margo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.elpasotexas.gov/mayor</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>iam_elpaso</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>elpasotxgov</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>El Paso</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://www.ci.wylie.tx.us</t>
+          <t>Euless</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Eric Hogue</t>
+          <t>http://www.ci.euless.tx.us</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wylie, TX</t>
+          <t>Linda Lipp Martin</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>http://www.euless.org/cityhall/mayor.htm</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1535,50 +1675,105 @@
       <c r="F33" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Tarrant</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://www.cityofallen.org</t>
+          <t>Farmers Branch</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Debbie Stout</t>
+          <t>http://www.farmersbranch.info</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Allen, TX</t>
+          <t>Robert C. Dye</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.cityofallen.org/1299/Debbie-Stout</t>
+          <t>https://www.farmersbranchtx.gov/DocumentCenter/View/6981/Mayor-Dye-bio?bidId=</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://www.cityofcarrollton.com</t>
+          <t>Flower Mound</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kevin Falconer</t>
+          <t>http://www.flower-mound.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Carrollton, TX</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>http://www.cityofcarrollton.com/government/city-manager-s-office/city-secretary/city-council/council-bios/mayor-kevin-falconer</t>
+          <t>Steve Dixon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1589,50 +1784,70 @@
       <c r="F35" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Denton</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://www.cityofcc.org</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Frank Moreno Junior</t>
+          <t>http://www.fortworthtexas.gov</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Crystal City, TX</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>Betsy Price</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>http://fortworthtexas.gov/mayor/bio/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>cityoffortworth</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.fortworthtexas.gov/departments/library/events/managing-stress-during-covid-19</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Tarrant</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://www.cityofconroe.org</t>
+          <t>Friendswood</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Toby Powell</t>
+          <t>http://www.ci.friendswood.tx.us</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Conroe, TX</t>
+          <t>Mike Foreman</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>http://www.ci.friendswood.tx.us/Biographies/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1645,135 +1860,100 @@
           <t>error</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>/transparency/covid-19-business-resources</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>/transparency/coronavirus-disease-2019-covid-19-updates</t>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Galveston</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://www.cityofdelrio.com</t>
+          <t>Frisco</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bruno 'Ralphy' Lozano</t>
+          <t>http://www.friscotexas.gov</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Del Rio, TX</t>
+          <t>Jeff Cheney</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.cityofdelrio.com/445/Mayor</t>
+          <t>http://www.friscotexas.gov/586/Jeff-Cheney</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>cityoffriscotx</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>/government/covid-19</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>http://www.cityofdelrio.com/government/covid-19</t>
+          <t>CityOfFriscoTx</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Collin</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://www.cityofdenton.com</t>
+          <t>Galveston</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chris Watts</t>
+          <t>http://www.cityofgalveston.org</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Denton, TX</t>
+          <t>Craig Brown</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.cityofdenton.com/government/city-council/mayor-chris-watts</t>
+          <t>https://www.galvestontx.gov/517/District-2-Craig-Brown</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>cityofgalvestontx</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cityofdentontx?lang=en</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>/en-us/government/health-safety/covid-19-information/city-facility-reopening-schedule</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>/en-us/residents/health-safety/covid-19-information</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>/en-us/government/health-safety/covid-19-information/covid-19-business-guidelines</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>/en-us/government/health-safety/covid-19-information</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>/en-us/government/health-safety/covid-19-information/home-covid-19-information</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>/en-us/government/health-safety/covid-19-information/business-resources</t>
+          <t>@CityofGalveston</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Galveston</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://www.cityofedinburg.com</t>
+          <t>Garland</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Richard Molina</t>
+          <t>http://www.garlandtx.gov</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Edinburg, TX</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>http://www.cityofedinburg.com/meet.php</t>
+          <t>Lori Barnett Dodson</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1784,119 +1964,149 @@
       <c r="F40" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://www.cityofgalveston.org</t>
+          <t>Georgetown</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Craig Brown</t>
+          <t>https://georgetown.org</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galveston, TX</t>
+          <t>Dale Ross</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.galvestontx.gov/517/District-2-Craig-Brown</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>cityofgalvestontx</t>
+          <t>https://government.georgetown.org/city-council/mayor/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>@CityofGalveston</t>
+          <t>georgetowntx</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://georgetown.org/coronavirus-information/covid-19-faq/</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Williamson</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://www.cityofhidalgo.net</t>
+          <t>Grand Prairie</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sergio Coronado</t>
+          <t>http://www.gptx.org</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hidalgo, TX</t>
+          <t>Ron Jensen</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://cityofhidalgo.net/mayors-message/</t>
+          <t>http://www.gptx.org/index.aspx?page=323</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>cityofgptx</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>gp_tx</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>/covid19-updates</t>
+          <t>/city-government/city-departments/environmental-services/coronavirus-covid-19</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://covid19.healthdata.org/projections?fbclid=IwAR2e9YwqSO706fzXFh0QTo3teBNv8K1L5oPVD9KprSb3mOCvsV5yZwsPs68</t>
+          <t>/city-government/city-departments/environmental-services/coronavirus-covid-19/covid-19-testing-site-in-grand-prairie</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://www.cityofirving.org</t>
+          <t>Grapevine</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rick Stopfer</t>
+          <t>http://www.ci.grapevine.tx.us</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Irving, TX</t>
+          <t>William 'Bill' D. Tate</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://ballotpedia.org/Rick_Stopfer</t>
+          <t>http://www.ci.grapevine.tx.us/index.aspx?nid=93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>grapevinetx</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>home?status=https%3A%2F%2Fballotpedia.org%2FRick_Stopfer</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://www.dallascounty.org/covid-19/guidance-health.php</t>
+          <t>GrapevineTXCity</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Tarrant</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://www.cityofkyle.com</t>
+          <t>Haltom City</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Travis Mitchell</t>
+          <t>http://www.haltomcitytx.com</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kyle, TX</t>
+          <t>An Truong</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1911,130 +2121,165 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>/communications/city-kyle-coronavirus-covid-19-update</t>
+          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3472-city-council-continuation-declaration-public-health-emergency-april-13-2020</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>/communications/visit-wwwcityofkylecomcovid-latest-city-kyle-covid-19-updates</t>
+          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3482-tarrant-county-launches-pilot-covid-19-screening-website</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3462-haltom-city-resident-passes-away-covid-19-apr-4-2020</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3543-gov-abbott-issues-executive-order-requiring-face-coverings-july-2-2020</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3542-tarrant-county-non-governmental-organization-ngo-covid-19-assistance-program</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3502-tarrant-county-covid-19-drive-thru-testing</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Tarrant</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://www.cityoflaredo.com</t>
+          <t>Harlingen</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pete Saenz</t>
+          <t>http://www.myharlingen.us</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Laredo, TX</t>
+          <t>Chris Boswell</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.cityoflaredo.com/mayor-council/N_MCmSites/Mayor/index.html</t>
+          <t>http://www.myharlingen.us/default.aspx?name=admin.mayor_commission</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>myharlingen</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://www.cityoflaredo.com/utilities/assets/05-07-20_utilities_dept_covid_relief_program_form_fillable.pdf</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>https://www.cityoflaredo.com/assets/corona-07-09-20_covid-19_testing_sites.pdf</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://citysearch.cityoflaredo.com/Docuware/Platform/WebClient/Forms/covid-19-relief-requirements?orgID=f776ca86-040b-4650-86a5-d1d1ce7a4e8b</t>
+          <t>/page/covid.reopen</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Cameron</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://www.cityoflewisville.com</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Rudy Durham</t>
+          <t>http://www.cityofhidalgo.net</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lewisville, TX</t>
+          <t>Sergio Coronado</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.cityoflewisville.com/index.aspx?page=53</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>http://cityofhidalgo.net/mayors-message/</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>/about-us/covid-19-information</t>
+          <t>/covid19-updates</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://covid19.healthdata.org/projections?fbclid=IwAR2e9YwqSO706fzXFh0QTo3teBNv8K1L5oPVD9KprSb3mOCvsV5yZwsPs68</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://www.cityofmesquite.com</t>
+          <t>Huntsville</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bruce Archer</t>
+          <t>http://www.huntsvilletx.gov</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mesquite, TX</t>
+          <t>Andy Brauninger</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.cityofmesquite.com/3158/Mayor</t>
+          <t>http://www.huntsvilletx.gov/Directory.aspx?EID=158</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>cityofhuntsville</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cityofmesquite</t>
+          <t>huntsvilletexas?lang=en</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Walker</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://www.cityofsanjuantexas.com</t>
+          <t>Hurst</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mario Garza</t>
+          <t>http://www.hursttx.gov</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>San Juan, TX</t>
+          <t>Henry Wilson</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2045,141 +2290,171 @@
       <c r="F48" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>/residents/coronavirus-covid-19</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Tarrant</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://www.cityofsherman.org</t>
+          <t>Hutto</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>David Plyler</t>
+          <t>http://www.huttotx.gov</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sherman, TX</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>Doug Gaul</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>http://www.huttotx.gov/government/city_council/mayor_doug_gaul.php</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>home?status=http:</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>government/covid-19-info.php</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Williamson</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://www.cityoftyler.org</t>
+          <t>Irving</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Martin Heines</t>
+          <t>http://www.cityofirving.org</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tyler, TX</t>
+          <t>Rick Stopfer</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.cityoftyler.org/Government/MayorandCouncil/Mayor.aspx</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>https://ballotpedia.org/Rick_Stopfer</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>home?status=https%3A%2F%2Fballotpedia.org%2FRick_Stopfer</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>/?splash=https%3a%2f%2fwww.nethealthcovid19.org%2f&amp;____isexternal=true</t>
+          <t>https://www.dallascounty.org/covid-19/guidance-health.php</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://www.cob.us</t>
+          <t>Keller</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Trey Mendez</t>
+          <t>http://cityofkeller.com</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Brownsville, TX</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://votetrey.com/</t>
+          <t>Pat McGrail</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://www.cityofkeller.com/services/fire-rescue/emergency-management/coronavirus-covid-19-information</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Tarrant</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://www.coppelltx.gov</t>
+          <t>Killeen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Karen Hunt</t>
+          <t>http://www.ci.killeen.tx.us</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Coppell, TX</t>
+          <t>Jose L. Segarra</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.coppelltx.gov/Pages/Council-Mayor.aspx</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>cityofcoppelltx</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>cityofcoppell</t>
+          <t>https://killenmayor.business.site/</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Bell</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://www.copperascovetx.gov</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bradi Diaz</t>
+          <t>http://www.cityofkyle.com</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Copperas Cove, TX</t>
+          <t>Travis Mitchell</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2194,29 +2469,34 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>/pio/covid-19/</t>
+          <t>/communications/city-kyle-coronavirus-covid-19-update</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>/communications/visit-wwwcityofkylecomcovid-latest-city-kyle-covid-19-updates</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Hays</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://www.cor.net</t>
+          <t>La Porte</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Paul Voelker</t>
+          <t>http://www.ci.la-porte.tx.us</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Richardson, TX</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>http://www.cor.net/index.aspx?page=1819</t>
+          <t>Louis Rigby</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2227,168 +2507,218 @@
       <c r="F54" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>http://www.laportetx.gov/covid19</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Harris</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://www.cstx.gov</t>
+          <t>Lancaster</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Karl Mooney</t>
+          <t>http://www.lancaster-tx.com</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>College Station, TX</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://www.cstx.gov/departments___city_hall/council</t>
+          <t>Clyde Hairston</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>cityofcs</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://www.cwftx.net</t>
+          <t>Laredo</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Stephen L. Santellana</t>
+          <t>http://www.cityoflaredo.com</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Wichita Falls, TX</t>
+          <t>Pete Saenz</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.wichitafallstx.gov/946/Mayor-Stephen-Satellana</t>
+          <t>http://www.cityoflaredo.com/mayor-council/N_MCmSites/Mayor/index.html</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://www.cityoflaredo.com/utilities/assets/05-07-20_utilities_dept_covid_relief_program_form_fillable.pdf</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.cityoflaredo.com/assets/corona-07-09-20_covid-19_testing_sites.pdf</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://citysearch.cityoflaredo.com/Docuware/Platform/WebClient/Forms/covid-19-relief-requirements?orgID=f776ca86-040b-4650-86a5-d1d1ce7a4e8b</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Webb</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://www.dallascityhall.com</t>
+          <t>League City</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Eric Johnson</t>
+          <t>http://www.leaguecity.com</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Pat Hallisey</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://dallascityhall.com/government/citymayor/Pages/Biography.aspx</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>mayorofdallas</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>dallasmayor</t>
+          <t>http://www.leaguecity.com/Index.aspx?NID=768</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Galveston</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://www.deerparktx.gov</t>
+          <t>Leander</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jerry Mouton Jr.</t>
+          <t>http://www.leandertx.gov</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Deer Park, TX</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>http://www.deerparktx.gov/Index.aspx?NID=1023</t>
+          <t>Troy Hill</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>deerparktxgov</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">deerparktxgov?lang=en </t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://www.leandertx.gov/communications/page/coronavirus-disease-2019-covid-19</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Williamson</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://www.desototexas.gov</t>
+          <t>Lewisville</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Curtistene Smith McCowan</t>
+          <t>http://www.cityoflewisville.com</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DeSoto, TX</t>
+          <t>Rudy Durham</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.ci.desoto.tx.us/61/Place-One</t>
+          <t>http://www.cityoflewisville.com/index.aspx?page=53</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>desototx</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>/about-us/covid-19-information</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Denton</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://www.duncanville.com</t>
+          <t>Little Elm</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Barry L. Gordon</t>
+          <t>http://www.littleelm.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Duncanville, TX</t>
+          <t>David Hillock</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.duncanville.com/government/city-council/barry-gordon/</t>
+          <t>http://www.littleelm.org/index.aspx?NID=875</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2401,105 +2731,100 @@
           <t>error</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>r</t>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Denton</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://www.eaglepasstx.us</t>
+          <t>Longview</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ramsey English Cantu</t>
+          <t>http://www.ci.longview.tx.us</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Eagle Pass, TX</t>
+          <t>Andy Mack</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.portstoplains.com/index.php/our-alliance/our-board/57-personnel/board-members/457-ramsey-english-cantu</t>
+          <t>https://www.longviewtexas.gov/2202/Mayor</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>cityoflongview</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>cityoflongview</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Gregg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://www.elpasotexas.gov</t>
+          <t>Lubbock</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dee Margo</t>
+          <t>http://www.ci.lubbock.tx.us</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>El Paso, TX</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://www.elpasotexas.gov/mayor</t>
+          <t>Dan Pope</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>iam_elpaso</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>elpasotxgov</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Lubbock</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://www.farmersbranch.info</t>
+          <t>Lufkin</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Robert C. Dye</t>
+          <t>http://www.ci.lufkin.tx.us</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Farmers Branch, TX</t>
+          <t>Bob Brown</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.farmersbranchtx.gov/DocumentCenter/View/6981/Mayor-Dye-bio?bidId=</t>
+          <t>http://cityoflufkin.com/council/mayor.htm</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2525,23 +2850,33 @@
       <c r="K63" t="inlineStr">
         <is>
           <t>r</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Angelina</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://www.flower-mound.com</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Steve Dixon</t>
+          <t>http://www.mansfield-tx.gov</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Flower Mound, TX</t>
+          <t>David L. Cook</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>http://www.mansfield-tx.gov/departments/council/members/mayor.php</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2552,156 +2887,171 @@
       <c r="F64" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Tarrant</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://www.fortworthtexas.gov</t>
+          <t>McAllen</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Betsy Price</t>
+          <t>http://www.mcallen.net</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Fort Worth, TX</t>
+          <t>James E. Darling</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://fortworthtexas.gov/mayor/bio/</t>
+          <t>https://tcaptx.com/staff/jim-darling</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>cityoffortworth</t>
+          <t>tcaptx</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://www.fortworthtexas.gov/departments/library/events/managing-stress-during-covid-19</t>
+          <t>https://www.mcallen.net/covid19</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.mcallen.net/covid19/</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://www.friscotexas.gov</t>
+          <t>McKinney</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Jeff Cheney</t>
+          <t>http://www.mckinneytexas.org</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Frisco, TX</t>
+          <t>George Fuller</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.friscotexas.gov/586/Jeff-Cheney</t>
+          <t>https://www.mckinneytexas.org/1167/Council-Members</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>cityoffriscotx</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CityOfFriscoTx</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Collin</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://www.garlandtx.gov</t>
+          <t>Mesquite</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lori Barnett Dodson</t>
+          <t>http://www.cityofmesquite.com</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Garland, TX</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>Bruce Archer</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.cityofmesquite.com/3158/Mayor</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>cityofmesquite</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Starr</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://www.gptx.org</t>
+          <t>Mesquite</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ron Jensen</t>
+          <t>http://www.cityofmesquite.com</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Grand Prairie, TX</t>
+          <t>Bruce Archer</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.gptx.org/index.aspx?page=323</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>cityofgptx</t>
+          <t>https://www.cityofmesquite.com/3158/Mayor</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>gp_tx</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>/city-government/city-departments/environmental-services/coronavirus-covid-19</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>/city-government/city-departments/environmental-services/coronavirus-covid-19/covid-19-testing-site-in-grand-prairie</t>
+          <t>cityofmesquite</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://www.haltomcitytx.com</t>
+          <t>Midland</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>An Truong</t>
+          <t>http://www.midlandtexas.gov</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Haltom City, TX</t>
+          <t>Patrick Payton</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2714,83 +3064,63 @@
           <t>error</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3472-city-council-continuation-declaration-public-health-emergency-april-13-2020</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3482-tarrant-county-launches-pilot-covid-19-screening-website</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3462-haltom-city-resident-passes-away-covid-19-apr-4-2020</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3543-gov-abbott-issues-executive-order-requiring-face-coverings-july-2-2020</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3542-tarrant-county-non-governmental-organization-ngo-covid-19-assistance-program</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>/covid-19-information/covid-19-haltom-city-declarations-information/3502-tarrant-county-covid-19-drive-thru-testing</t>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Midland</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://www.huntsvilletx.gov</t>
+          <t>Mission</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Andy Brauninger</t>
+          <t>http://www.missiontexas.us</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Huntsville, TX</t>
+          <t>Armando Ocana</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.huntsvilletx.gov/Directory.aspx?EID=158</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>cityofhuntsville</t>
+          <t>http://missiontexas.us/elected-officials/city-mayor/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>huntsvilletexas?lang=en</t>
+          <t>CityOfMissionTX</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>http://www.hursttx.gov</t>
+          <t>Missouri City</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Henry Wilson</t>
+          <t>http://www.missouricitytx.gov</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Hurst, TX</t>
+          <t>Yolanda Ford</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>http://www.missouricitytx.gov/370/Mayor</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2803,58 +3133,63 @@
           <t>error</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>/residents/coronavirus-covid-19</t>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Fort Bend</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://www.huttotx.gov</t>
+          <t>Nacogdoches</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Doug Gaul</t>
+          <t>http://www.ci.nacogdoches.tx.us</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Hutto, TX</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>http://www.huttotx.gov/government/city_council/mayor_doug_gaul.php</t>
+          <t>Shelley Brophy</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>home?status=http:</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>government/covid-19-info.php</t>
+          <t>/covid19</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Nacogdoches</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://www.lancaster-tx.com</t>
+          <t>New Braunfels</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Clyde Hairston</t>
+          <t>http://www.nbtexas.org</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lancaster, TX</t>
+          <t>Barron Casteel</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2865,114 +3200,149 @@
       <c r="F73" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Comal</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://www.leaguecity.com</t>
+          <t>North Richland Hills</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pat Hallisey</t>
+          <t>https://www.nrhtx.com</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>League City, TX</t>
+          <t>Oscar Trevino</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.leaguecity.com/Index.aspx?NID=768</t>
+          <t>https://www.nrhtx.com/360/Mayor</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Tarrant</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://www.leandertx.gov</t>
+          <t>Odessa</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Troy Hill</t>
+          <t>http://www.odessa-tx.gov</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Leander, TX</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>David Turner</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.odessa-tx.gov/government/city-council/mayor</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>CityofOdessa</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://www.leandertx.gov/communications/page/coronavirus-disease-2019-covid-19</t>
+          <t>/residents/health/coronavirus-covid-19-updates-information/covid-19-testing</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>/residents/health/coronavirus-covid-19-updates-information</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>/residents/health/coronavirus-covid-19-updates-information/city-of-odessa-business-assistance-program</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Ector</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>http://www.littleelm.org</t>
+          <t>Pasadena</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>David Hillock</t>
+          <t>http://www.ci.pasadena.tx.us</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Little Elm, TX</t>
+          <t>Jeff A. Wagner</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.littleelm.org/index.aspx?NID=875</t>
+          <t>https://www.pasadenatx.gov/578/Mayor-Jeff-Wagner</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>pasadenatxgov</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>pasadenatxgov</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Harris</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://www.mansfield-tx.gov</t>
+          <t>Pearland</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>David L. Cook</t>
+          <t>http://www.pearlandtx.gov</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Mansfield, TX</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>http://www.mansfield-tx.gov/departments/council/members/mayor.php</t>
+          <t>Tom Reid</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2983,151 +3353,176 @@
       <c r="F77" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://www.pearlandtx.gov/residents/resources/coronavirus-covid-19-2284</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Brazoria</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://www.mcallen.net</t>
+          <t>Pflugerville</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>James E. Darling</t>
+          <t>http://cityofpflugerville.com/</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>McAllen, TX</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://tcaptx.com/staff/jim-darling</t>
+          <t>Victor Gonzales</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>tcaptx</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>https://www.mcallen.net/covid19</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>https://www.mcallen.net/covid19/</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Travis</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://www.mckinneytexas.org</t>
+          <t>Pharr</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>George Fuller</t>
+          <t>http://www.pharr-tx.gov</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>McKinney, TX</t>
+          <t>Ambrosio 'Amos' Hernandez</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.mckinneytexas.org/1167/Council-Members</t>
+          <t>https://rgvweightloss.com/team-member/dr-ambrosio-hernandez/</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>dhrhealth</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>dhrhealth</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>http://pharr-tx.gov/covid-19/</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://www.midlandtexas.gov</t>
+          <t>Plano</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Patrick Payton</t>
+          <t>http://www.plano.gov</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Midland, TX</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>Harry LaRosiliere</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>http://www.plano.gov/1787/Mayor-LaRosiliere</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://plano.gov/covid19</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Collin</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://www.missiontexas.us</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Armando Ocana</t>
+          <t>http://www.portarthur.net</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mission, TX</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>http://missiontexas.us/elected-officials/city-mayor/</t>
+          <t>Thurman 'Bill' Bartie</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CityOfMissionTX</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Jefferson</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>http://www.missouricitytx.gov</t>
+          <t>Richardson</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Yolanda Ford</t>
+          <t>http://www.cor.net</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Missouri City, TX</t>
+          <t>Paul Voelker</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.missouricitytx.gov/370/Mayor</t>
+          <t>http://www.cor.net/index.aspx?page=1819</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3138,55 +3533,60 @@
       <c r="F82" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>http://www.myharlingen.us</t>
+          <t>Rockwall</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Chris Boswell</t>
+          <t>http://rockwall.com</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Harlingen, TX</t>
+          <t>Jim Pruitt</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.myharlingen.us/default.aspx?name=admin.mayor_commission</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>myharlingen</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>/page/covid.reopen</t>
+          <t>http://www.rockwall.com/documents/MayorCouncil/JimPruitt.pdf</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Rockwall</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://www.nbtexas.org</t>
+          <t>Rosenberg</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Barron Casteel</t>
+          <t>http://www.ci.rosenberg.tx.us</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>New Braunfels, TX</t>
+          <t>William 'Bill' T. Benton</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>http://rosenbergtx.gov/city-government/mayor-city-council/</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3197,161 +3597,236 @@
       <c r="F84" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Fort Bend</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>http://www.odessa-tx.gov</t>
+          <t>Round Rock</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>David Turner</t>
+          <t>http://www.roundrocktexas.gov</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Odessa, TX</t>
+          <t>Craig Morgan</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.odessa-tx.gov/government/city-council/mayor</t>
+          <t>https://www.roundrocktexas.gov/about/city-council/city-council-members/</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>roundrocktexas</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CityofOdessa</t>
+          <t>roundrock</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>/residents/health/coronavirus-covid-19-updates-information/covid-19-testing</t>
+          <t>https://www.roundrocktexas.gov/departments/fire/emergency-management/coronavirus-covid-19-information/</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>/residents/health/coronavirus-covid-19-updates-information</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>/residents/health/coronavirus-covid-19-updates-information/city-of-odessa-business-assistance-program</t>
+          <t>https://www.roundrocktexas.gov/departments/fire/emergency-management/coronavirus-covid-19-information/#impact-services</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Williamson</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://www.pearlandtx.gov</t>
+          <t>Rowlett</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tom Reid</t>
+          <t>http://www.rowlett.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Pearland, TX</t>
+          <t>Tammy Dana-Bashian</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>http://www.rowlett.com/directory.aspx?EID=396</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>cityofrowletttexas</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>https://www.pearlandtx.gov/residents/resources/coronavirus-covid-19-2284</t>
+          <t>RowlettMayorTDB</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://www.pharr-tx.gov</t>
+          <t>San Angelo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ambrosio 'Amos' Hernandez</t>
+          <t>http://www.sanangelotexas.org</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Pharr, TX</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://rgvweightloss.com/team-member/dr-ambrosio-hernandez/</t>
+          <t>Brenda Gunter</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>dhrhealth</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>dhrhealth</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://pharr-tx.gov/covid-19/</t>
+          <t>/departments-services/health-services/coronavirus-covid-19</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Tom Green</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://www.plano.gov</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Harry LaRosiliere</t>
+          <t>http://www.sanantonio.gov</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Plano, TX</t>
+          <t>Ron Nirenberg</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.plano.gov/1787/Mayor-LaRosiliere</t>
+          <t>http://www.sanantonio.gov/mayor</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ron_nirenberg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://plano.gov/covid19</t>
+          <t>https://covid19.sanantonio.gov/Assistance</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://covid19.sanantonio.gov/What-YOU-Can-Do/Stay-Safe-and-Celebrate</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://covid19.sanantonio.gov/</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>mailto:covid-19@sanantonio.gov</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>https://covid19.sanantonio.gov/Services/Workforce-Recovery-Program</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>https://covid19.sanantonio.gov/What-YOU-Can-Do/Testing</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Bexar</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://www.portarthur.net</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Thurman 'Bill' Bartie</t>
+          <t>http://www.cityofsanjuantexas.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Port Arthur, TX</t>
+          <t>Mario Garza</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3362,191 +3837,171 @@
       <c r="F89" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Starr</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://www.roundrocktexas.gov</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Craig Morgan</t>
+          <t>http://www.cityofsanjuantexas.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Round Rock, TX</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://www.roundrocktexas.gov/about/city-council/city-council-members/</t>
+          <t>Mario Garza</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>roundrocktexas</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>roundrock</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>https://www.roundrocktexas.gov/departments/fire/emergency-management/coronavirus-covid-19-information/</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>https://www.roundrocktexas.gov/departments/fire/emergency-management/coronavirus-covid-19-information/#impact-services</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>http://www.rowlett.com</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tammy Dana-Bashian</t>
+          <t>http://www.sanmarcostx.gov</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Rowlett, TX</t>
+          <t>Jane Hughson</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.rowlett.com/directory.aspx?EID=396</t>
+          <t>http://www.sanmarcostx.gov/386/Mayor-Jane-Hughson</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>cityofrowletttexas</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>RowlettMayorTDB</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>/covid19info</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>http://www.sanmarcostx.gov/covid19info</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Hays</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>http://www.sanangelotexas.org</t>
+          <t>Schertz</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Brenda Gunter</t>
+          <t>http://schertz.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>San Angelo, TX</t>
+          <t>Ralph Gutierrez</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>http://schertz.com/236/Mayor</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>/departments-services/health-services/coronavirus-covid-19</t>
+          <t>cityofschertz</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Guadalupe</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://www.sanantonio.gov</t>
+          <t>Sherman</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ron Nirenberg</t>
+          <t>http://www.cityofsherman.org</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>http://www.sanantonio.gov/mayor</t>
+          <t>David Plyler</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ron_nirenberg</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>https://covid19.sanantonio.gov/Assistance</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>https://covid19.sanantonio.gov/What-YOU-Can-Do/Stay-Safe-and-Celebrate</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>https://covid19.sanantonio.gov/</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>mailto:covid-19@sanantonio.gov</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>https://covid19.sanantonio.gov/Services/Workforce-Recovery-Program</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>https://covid19.sanantonio.gov/What-YOU-Can-Do/Testing</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Grayson</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://www.sanmarcostx.gov</t>
+          <t>Socorro</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jane Hughson</t>
+          <t>http://www.ci.socorro.tx.us</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>San Marcos, TX</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>http://www.sanmarcostx.gov/386/Mayor-Jane-Hughson</t>
+          <t>Elia Garcia</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3559,33 +4014,28 @@
           <t>error</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>/covid19info</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>http://www.sanmarcostx.gov/covid19info</t>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>El Paso</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>Sugar Land</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>http://www.sugarlandtx.gov</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Joe R. Zimmerman</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Sugar Land, TX</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>http://www.sugarlandtx.gov/index.aspx?NID=172</t>
@@ -3599,28 +4049,28 @@
       <c r="F95" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Fort Bend</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://www.texas-city-tx.org</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Matthew 'Matt' T. Doyle</t>
+          <t>http://www.ci.temple.tx.us</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Texas City, TX</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>http://www.texas-city-tx.org/page/commissioners.mayor</t>
+          <t>William A. Jones III</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3631,23 +4081,58 @@
       <c r="F96" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Bell</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://www.victoriatx.org</t>
+          <t>Texarkana</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Rawley McCoy</t>
+          <t>http://www.ci.texarkana.tx.us</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Victoria, TX</t>
+          <t>Bob Bruggeman</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>http://www.ci.texarkana.tx.us/302/Bob-Bruggeman-Mayor</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3658,70 +4143,65 @@
       <c r="F97" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Bowie</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://www.waco-texas.com</t>
+          <t>Texas City</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kyle Deaver</t>
+          <t>http://www.texas-city-tx.org</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Waco, TX</t>
+          <t>Matthew 'Matt' T. Doyle</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.waco-texas.com/mayor.asp</t>
+          <t>http://www.texas-city-tx.org/page/commissioners.mayor</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>cityofwaco</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>https://covidwaco.com/</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>https://wccc.tv/video/mobile-covid-testing/</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>https://covidwaco.com/covid-testing/where-to-get-tested/</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>http://www.covidwaco.com/communications-outreach</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Galveston</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://www.waxahachie.com</t>
+          <t>The Colony</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Kevin Strength</t>
+          <t>http://www.ci.the-colony.tx.us</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Waxahachie, TX</t>
+          <t>Joe McCourry</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3734,36 +4214,31 @@
           <t>error</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>covid-19_resources/index.php</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>departments/economic_development_new/covid-19_business_resources.php</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>http://www.waxahachie.com/covid-19_resources/index.php</t>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Denton</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://www.weslacotx.gov</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>David Suarez</t>
+          <t>http://www.cityoftyler.org</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Weslaco, TX</t>
+          <t>Martin Heines</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>http://www.cityoftyler.org/Government/MayorandCouncil/Mayor.aspx</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3778,145 +4253,160 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://www.weslacotx.gov/news-and-press?press_release=office-of-the-mayor-office-of-emergency-management-weslaco-10th-confirmed-covid-19-case-4-slash-7-slash-2020</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>http://www.weslacotx.gov/news-and-press?press_release=office-of-the-mayor-office-of-emergency-management-weslaco-41-new-additional-covid-19-confirmed-cases-and-three-3-covid-19-related-death-7-slash-21-slash-20</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>http://www.weslacotx.gov/news-and-press?press_release=april-8-2020-7-27-pm-office-of-the-mayor-office-of-emergency-management-weslaco-11th-and-12th-confirmed-covid-19-case-4-slash-8-slash-2020</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>http://www.weslacotx.gov/news-and-press?press_release=office-of-the-mayor-office-of-emergency-management-weslaco-two-2-new-additional-covid-19-confirmed-cases-4-slash-16-slash-20</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>http://www.weslacotx.gov/news-and-press?press_release=office-of-the-mayor-office-of-emergency-management-weslaco-two-2-new-additional-covid-19-confirmed-cases-5-slash-13-slash-20</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>http://www.weslacotx.gov/news-and-press?press_release=office-of-the-mayor-office-of-emergency-management-weslaco-four-4-new-additional-covid-19-confirmed-cases-6-slash-9-slash-20</t>
+          <t>/?splash=https%3a%2f%2fwww.nethealthcovid19.org%2f&amp;____isexternal=true</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Smith</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://georgetown.org</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dale Ross</t>
+          <t>http://www.victoriatx.org</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Georgetown, TX</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://government.georgetown.org/city-council/mayor/</t>
+          <t>Rawley McCoy</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>georgetowntx</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>https://georgetown.org/coronavirus-information/covid-19-faq/</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Victoria</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.cibolotx.gov/</t>
+          <t>Waco</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Stan "Stosh" Boyle</t>
+          <t>http://www.waco-texas.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cibolo, TX</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>error</t>
+          <t>Kyle Deaver</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>http://www.waco-texas.com/mayor.asp</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>cityofwaco</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://covidwaco.com/</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://wccc.tv/video/mobile-covid-testing/</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://covidwaco.com/covid-testing/where-to-get-tested/</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>http://www.covidwaco.com/communications-outreach</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>McLennan</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.cleburne.net</t>
+          <t>Waxahachie</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Scott Cain</t>
+          <t>http://www.waxahachie.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cleburne, TX</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://www.cleburne.net/239/Scott-Cain</t>
+          <t>Kevin Strength</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>cityofcleburne</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>CityofCleburne</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>covid-19_resources/index.php</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>departments/economic_development_new/covid-19_business_resources.php</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>http://www.waxahachie.com/covid-19_resources/index.php</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Ellis</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.nrhtx.com</t>
+          <t>Weslaco</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Oscar Trevino</t>
+          <t>http://www.weslacotx.gov</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>North Richland Hills, TX</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://www.nrhtx.com/360/Mayor</t>
+          <t>David Suarez</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3927,6 +4417,100 @@
       <c r="F104" t="inlineStr">
         <is>
           <t>error</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>http://www.weslacotx.gov/news-and-press?press_release=office-of-the-mayor-office-of-emergency-management-weslaco-10th-confirmed-covid-19-case-4-slash-7-slash-2020</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>http://www.weslacotx.gov/news-and-press?press_release=office-of-the-mayor-office-of-emergency-management-weslaco-41-new-additional-covid-19-confirmed-cases-and-three-3-covid-19-related-death-7-slash-21-slash-20</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>http://www.weslacotx.gov/news-and-press?press_release=april-8-2020-7-27-pm-office-of-the-mayor-office-of-emergency-management-weslaco-11th-and-12th-confirmed-covid-19-case-4-slash-8-slash-2020</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>http://www.weslacotx.gov/news-and-press?press_release=office-of-the-mayor-office-of-emergency-management-weslaco-two-2-new-additional-covid-19-confirmed-cases-4-slash-16-slash-20</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>http://www.weslacotx.gov/news-and-press?press_release=office-of-the-mayor-office-of-emergency-management-weslaco-two-2-new-additional-covid-19-confirmed-cases-5-slash-13-slash-20</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>http://www.weslacotx.gov/news-and-press?press_release=office-of-the-mayor-office-of-emergency-management-weslaco-four-4-new-additional-covid-19-confirmed-cases-6-slash-9-slash-20</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Wichita Falls</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>http://www.cwftx.net</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Stephen L. Santellana</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>http://www.wichitafallstx.gov/946/Mayor-Stephen-Satellana</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Wichita</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Wylie</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>http://www.ci.wylie.tx.us</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Eric Hogue</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Collin</t>
         </is>
       </c>
     </row>
